--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3979.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3979.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.273118448344643</v>
+        <v>0.9293811321258545</v>
       </c>
       <c r="B1">
-        <v>2.752221479063695</v>
+        <v>1.368552088737488</v>
       </c>
       <c r="C1">
-        <v>5.446499135958358</v>
+        <v>1.780435085296631</v>
       </c>
       <c r="D1">
-        <v>2.966244492431878</v>
+        <v>4.868771076202393</v>
       </c>
       <c r="E1">
-        <v>1.330055792713818</v>
+        <v>4.589833736419678</v>
       </c>
     </row>
   </sheetData>
